--- a/sideeffects.xlsx
+++ b/sideeffects.xlsx
@@ -25,13 +25,16 @@
     <t>title</t>
   </si>
   <si>
-    <t>impulsivity</t>
-  </si>
-  <si>
     <t>irritability</t>
   </si>
   <si>
     <t>weight gain</t>
+  </si>
+  <si>
+    <t>impulsivity</t>
+  </si>
+  <si>
+    <t>insomnia</t>
   </si>
   <si>
     <t>hyperactivity</t>
@@ -41,9 +44,6 @@
   </si>
   <si>
     <t>lack of appetite</t>
-  </si>
-  <si>
-    <t>insomnia</t>
   </si>
 </sst>
 </file>
@@ -420,10 +420,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="B2">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -431,10 +431,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -442,32 +442,32 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B4">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -475,131 +475,131 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B7">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="B8">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B9">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="B10">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B11">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B12">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="B13">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="B14">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="B15">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="B16">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B18">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
@@ -607,10 +607,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B19">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
@@ -618,244 +618,244 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B21">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B22">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
+        <v>75</v>
+      </c>
+      <c r="B23">
         <v>41</v>
       </c>
-      <c r="B23">
-        <v>82</v>
-      </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B25">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="B27">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
+        <v>20</v>
+      </c>
+      <c r="B28">
         <v>49</v>
       </c>
-      <c r="B28">
-        <v>67</v>
-      </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B29">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="B30">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="B31">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="B32">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="C32" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B33">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B34">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="C34" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B36">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B37">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="C37" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="B38">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="B39">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B40">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="B41">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -863,161 +863,161 @@
         <v>59</v>
       </c>
       <c r="B42">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="B43">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="B44">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B45">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B46">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="B47">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B48">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C48" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="B49">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="B50">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="B51">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="C51" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="B52">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B53">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C53" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="B54">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C54" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="B55">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="C55" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="C56" t="s">
         <v>9</v>
@@ -1025,35 +1025,35 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="B57">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C57" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B58">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="B59">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1061,73 +1061,73 @@
         <v>49</v>
       </c>
       <c r="B60">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="B61">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C61" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B62">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="C62" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="B63">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="C63" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B64">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C64" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="B65">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="B66">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C66" t="s">
         <v>9</v>
@@ -1135,21 +1135,21 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="B67">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="C67" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="B68">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="C68" t="s">
         <v>8</v>
@@ -1157,164 +1157,164 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="B69">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B70">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B71">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="B72">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
+        <v>3</v>
+      </c>
+      <c r="B73">
         <v>12</v>
       </c>
-      <c r="B73">
-        <v>43</v>
-      </c>
       <c r="C73" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="B74">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C74" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B75">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="C75" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B76">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B77">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C77" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="B78">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="C78" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B79">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C79" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="B80">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B81">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="B82">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="C82" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B83">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -1322,32 +1322,32 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B84">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="C84" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="B85">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B86">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C86" t="s">
         <v>4</v>
@@ -1355,65 +1355,65 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="B87">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C87" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="B88">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C88" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B89">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="C89" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B90">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="B91">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="B92">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C92" t="s">
         <v>8</v>
@@ -1421,87 +1421,87 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="B93">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B94">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B95">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C95" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B96">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B97">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C97" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="B98">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B99">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C99" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="B100">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C100" t="s">
         <v>8</v>
@@ -1509,43 +1509,43 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="B101">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B102">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C102" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="B103">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B104">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
         <v>8</v>
@@ -1553,109 +1553,109 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="B105">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B106">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C106" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="B107">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="C107" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B108">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="C108" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="B109">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C109" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B110">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C110" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="B111">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C111" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B112">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="C112" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="B113">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="C113" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="B114">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="C114" t="s">
         <v>3</v>
@@ -1663,54 +1663,54 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="B115">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B116">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="C116" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="B117">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="B118">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="B119">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="C119" t="s">
         <v>8</v>
@@ -1718,197 +1718,197 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="B120">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C120" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B121">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="C121" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="B122">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="B123">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B124">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="C124" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="B125">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="C125" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B126">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="C126" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="B127">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="C127" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B128">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="B129">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B130">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="C130" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B131">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C131" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="B132">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="B133">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C133" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B134">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C134" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B135">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="C135" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B136">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C136" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="B137">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C137" t="s">
         <v>4</v>
@@ -1916,68 +1916,68 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B138">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C138" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B139">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="C139" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B140">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="C140" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B141">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="C141" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="B142">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="B143">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1985,40 +1985,40 @@
         <v>4</v>
       </c>
       <c r="B144">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="B145">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="C145" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="B146">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B147">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -2026,175 +2026,175 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="B148">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="C148" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
+        <v>83</v>
+      </c>
+      <c r="B149">
         <v>59</v>
       </c>
-      <c r="B149">
-        <v>39</v>
-      </c>
       <c r="C149" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B150">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="B151">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="C151" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="B152">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C152" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B153">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B154">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C154" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B155">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C155" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="B156">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="B157">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="B158">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C158" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B159">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C159" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="B160">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="C160" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B161">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="B162">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="C162" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="B163">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="C163" t="s">
         <v>6</v>
@@ -2202,120 +2202,120 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="B164">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B165">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B166">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="C166" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="B167">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C167" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="B168">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="C168" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B169">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B170">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B171">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B172">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B173">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="C173" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B174">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C174" t="s">
         <v>6</v>
@@ -2323,76 +2323,76 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="B175">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C175" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B176">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B177">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C177" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="B178">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="C178" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="B179">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B180">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="C180" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B181">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -2400,76 +2400,76 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="B182">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C182" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="B183">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C183" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B184">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="B185">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="C185" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="B186">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C186" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B187">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C187" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="B188">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="C188" t="s">
         <v>3</v>
@@ -2477,21 +2477,21 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B189">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="C189" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B190">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="C190" t="s">
         <v>7</v>
@@ -2499,98 +2499,98 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B191">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C191" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B192">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="B193">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="B194">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C194" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="B195">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B196">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B197">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="C197" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B198">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="B199">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C199" t="s">
         <v>3</v>
@@ -2598,65 +2598,65 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="B200">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="C200" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B201">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="C201" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B202">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="C202" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="B203">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="C203" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B204">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="C204" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="B205">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C205" t="s">
         <v>6</v>
@@ -2664,54 +2664,54 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="B206">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="C206" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="B207">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C207" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B208">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C208" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="B209">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C209" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B210">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="C210" t="s">
         <v>4</v>
@@ -2719,175 +2719,175 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="B211">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C211" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="B212">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C212" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="B213">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="C213" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="B214">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C214" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="B215">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C215" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="B216">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="C216" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="B217">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C217" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="B218">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C218" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B219">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C219" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B220">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C220" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B221">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="C221" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B222">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C222" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="B223">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C223" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B224">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C224" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B225">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="C225" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="B226">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -2895,65 +2895,65 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B227">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C227" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="B228">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="C228" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B229">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="C229" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="B230">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C230" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B231">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C231" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="B232">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="C232" t="s">
         <v>9</v>
@@ -2961,10 +2961,10 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B233">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C233" t="s">
         <v>7</v>
@@ -2972,10 +2972,10 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="B234">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C234" t="s">
         <v>9</v>
@@ -2983,32 +2983,32 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B235">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C235" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="B236">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C236" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B237">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="C237" t="s">
         <v>4</v>
@@ -3016,43 +3016,43 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B238">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="C238" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B239">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="C239" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B240">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C240" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="B241">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="C241" t="s">
         <v>3</v>
@@ -3060,87 +3060,87 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="B242">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C242" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B243">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C243" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="B244">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C244" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="B245">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="C245" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B246">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C246" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B247">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="C247" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B248">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C248" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B249">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C249" t="s">
         <v>8</v>
@@ -3148,24 +3148,24 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B250">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C250" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B251">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="C251" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3173,73 +3173,73 @@
         <v>38</v>
       </c>
       <c r="B252">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="C252" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="B253">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C253" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="B254">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C254" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="B255">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C255" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B256">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="C256" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="B257">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C257" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="B258">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C258" t="s">
         <v>3</v>
@@ -3247,32 +3247,32 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="B259">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C259" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B260">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C260" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B261">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="C261" t="s">
         <v>9</v>
@@ -3280,98 +3280,98 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="B262">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="C262" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="B263">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C263" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="B264">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C264" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265">
+        <v>84</v>
+      </c>
+      <c r="B265">
         <v>21</v>
       </c>
-      <c r="B265">
-        <v>87</v>
-      </c>
       <c r="C265" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B266">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="C266" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="B267">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="C267" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B268">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C268" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B269">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="C269" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="B270">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="C270" t="s">
         <v>7</v>
@@ -3379,109 +3379,109 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B271">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C271" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B272">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="C272" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B273">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C273" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B274">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="C274" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B275">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="C275" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="B276">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="C276" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B277">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="C277" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="B278">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C278" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="B279">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="C279" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B280">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="C280" t="s">
         <v>6</v>
@@ -3489,54 +3489,54 @@
     </row>
     <row r="281" spans="1:3">
       <c r="A281">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B281">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C281" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="B282">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="C282" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B283">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="C283" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B284">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="C284" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B285">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="C285" t="s">
         <v>3</v>
@@ -3544,21 +3544,21 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B286">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="C286" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B287">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -3566,134 +3566,134 @@
     </row>
     <row r="288" spans="1:3">
       <c r="A288">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B288">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C288" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="B289">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C289" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B290">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="C290" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B291">
         <v>62</v>
       </c>
       <c r="C291" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="B292">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="C292" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="B293">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="C293" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="B294">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="C294" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B295">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="C295" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B296">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="C296" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="B297">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="C297" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B298">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C298" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B299">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C299" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3701,139 +3701,139 @@
         <v>40</v>
       </c>
       <c r="B300">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C300" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="B301">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C301" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B302">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C302" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B303">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C303" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="B304">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C304" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B305">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C305" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B306">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="C306" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B307">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C307" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B308">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="C308" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="B309">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C309" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B310">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="C310" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B311">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="C311" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B312">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="C312" t="s">
         <v>4</v>
@@ -3841,164 +3841,164 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="B313">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C313" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B314">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C314" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="B315">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C315" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="B316">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C316" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="B317">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="C317" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="B318">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="C318" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B319">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="C319" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="B320">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="C320" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="B321">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C321" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B322">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C322" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="B323">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C323" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B324">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="C324" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="B325">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="C325" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B326">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="C326" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B327">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C327" t="s">
         <v>3</v>
@@ -4006,10 +4006,10 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B328">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="C328" t="s">
         <v>6</v>
@@ -4017,10 +4017,10 @@
     </row>
     <row r="329" spans="1:3">
       <c r="A329">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="B329">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -4028,120 +4028,120 @@
     </row>
     <row r="330" spans="1:3">
       <c r="A330">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B330">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C330" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="B331">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C331" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="B332">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="C332" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B333">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C333" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B334">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="C334" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B335">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C335" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B336">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C336" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B337">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="C337" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B338">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C338" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B339">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C339" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="B340">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C340" t="s">
         <v>4</v>
@@ -4149,230 +4149,230 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B341">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="C341" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="B342">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C342" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="B343">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C343" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B344">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="C344" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B345">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="C345" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B346">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="C346" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B347">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="C347" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="B348">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="C348" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="B349">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C349" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B350">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C350" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="B351">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="C351" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B352">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C352" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="B353">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="C353" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="B354">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C354" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="B355">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="C355" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B356">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C356" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B357">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C357" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="B358">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C358" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="B359">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="C359" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B360">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="C360" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B361">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="C361" t="s">
         <v>8</v>
@@ -4380,54 +4380,54 @@
     </row>
     <row r="362" spans="1:3">
       <c r="A362">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B362">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C362" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="B363">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="C363" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B364">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C364" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B365">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C365" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B366">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C366" t="s">
         <v>8</v>

--- a/sideeffects.xlsx
+++ b/sideeffects.xlsx
@@ -25,13 +25,10 @@
     <t>title</t>
   </si>
   <si>
-    <t>irritability</t>
+    <t>impulsivity</t>
   </si>
   <si>
-    <t>weight gain</t>
-  </si>
-  <si>
-    <t>impulsivity</t>
+    <t>lack of appetite</t>
   </si>
   <si>
     <t>insomnia</t>
@@ -43,7 +40,10 @@
     <t>inactivity</t>
   </si>
   <si>
-    <t>lack of appetite</t>
+    <t>weight gain</t>
+  </si>
+  <si>
+    <t>irritability</t>
   </si>
 </sst>
 </file>
@@ -420,10 +420,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -431,10 +431,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B3">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -442,32 +442,32 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="B5">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="B6">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -475,65 +475,65 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B7">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B8">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="B10">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="B11">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
@@ -541,76 +541,76 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="B13">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="B14">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="B15">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="B16">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B17">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="B18">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B19">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
@@ -618,32 +618,32 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="B20">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="B21">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="B22">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -651,164 +651,164 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B23">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B25">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="B26">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="B27">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B28">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="B30">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B31">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="B33">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B34">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="B36">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="B37">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
@@ -816,252 +816,252 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="B38">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="C38" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B39">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B40">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="C40" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B41">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="B42">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="B43">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="B44">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B45">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C45" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B46">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="B47">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B48">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C48" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B49">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C49" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B50">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B51">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B52">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="C52" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B53">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="C53" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B54">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="C54" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="B55">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="B56">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B57">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B58">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B59">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B60">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="C60" t="s">
         <v>4</v>
@@ -1069,98 +1069,98 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B61">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C61" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="B62">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B64">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C64" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B65">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C65" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B66">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C67" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
+        <v>72</v>
+      </c>
+      <c r="B69">
         <v>56</v>
-      </c>
-      <c r="B69">
-        <v>20</v>
       </c>
       <c r="C69" t="s">
         <v>3</v>
@@ -1168,21 +1168,21 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B70">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C70" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C71" t="s">
         <v>6</v>
@@ -1190,21 +1190,21 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B72">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="B73">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -1212,10 +1212,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B74">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C74" t="s">
         <v>6</v>
@@ -1223,76 +1223,76 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="B75">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C75" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="B76">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C76" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="B77">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C77" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="B78">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="B79">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="C79" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B80">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="B81">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -1300,142 +1300,142 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B82">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C82" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="B83">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C83" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="B84">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C84" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="B85">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="C85" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B86">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="C86" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="B87">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="C87" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="B88">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C88" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B89">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="B90">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B91">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="B92">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="B93">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C93" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="B94">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="C94" t="s">
         <v>3</v>
@@ -1443,54 +1443,54 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B95">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="C95" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B96">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="C96" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B97">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B98">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="C98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="B99">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C99" t="s">
         <v>4</v>
@@ -1498,164 +1498,164 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
+        <v>60</v>
+      </c>
+      <c r="B100">
         <v>1</v>
       </c>
-      <c r="B100">
-        <v>76</v>
-      </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B101">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="C101" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="B102">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="B103">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="C103" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="B104">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B105">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="C105" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="B106">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="C106" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="B107">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="C107" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="B108">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="B109">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C109" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="B110">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="B111">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="C111" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="B112">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C112" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="B113">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C113" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="B114">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C114" t="s">
         <v>3</v>
@@ -1663,21 +1663,21 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C115" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B116">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C116" t="s">
         <v>8</v>
@@ -1685,87 +1685,87 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B117">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="C117" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B118">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C118" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="B119">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B120">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B121">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B122">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C122" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B123">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="C123" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="B124">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -1773,43 +1773,43 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B125">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C125" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="B126">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="C126" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="B127">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C127" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B128">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="C128" t="s">
         <v>4</v>
@@ -1817,84 +1817,84 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B129">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="C129" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B130">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C130" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="B131">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B132">
         <v>51</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B133">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="C133" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B134">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C134" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B135">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C135" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="B136">
         <v>40</v>
@@ -1905,131 +1905,131 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="B137">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C137" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="B138">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C138" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B139">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="C139" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B140">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="C140" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B141">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B142">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="C142" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B143">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="C143" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="B144">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C144" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="B145">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="C145" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="B146">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C146" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B147">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C147" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="B148">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -2037,131 +2037,131 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="B149">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C149" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="B150">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C150" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B151">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C151" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="B152">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C152" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="B153">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C153" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B154">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="C154" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B155">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B156">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="C156" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="B157">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C157" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="B158">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B159">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B160">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C160" t="s">
         <v>9</v>
@@ -2169,142 +2169,142 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="B161">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C161" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B162">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="C162" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="B163">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="C163" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="B164">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B165">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C165" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B166">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="C166" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B167">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C167" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B168">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C168" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B169">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="C169" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="B170">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C170" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B171">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C171" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="B172">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="B173">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -2312,65 +2312,65 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="B174">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C174" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
+        <v>17</v>
+      </c>
+      <c r="B175">
         <v>26</v>
       </c>
-      <c r="B175">
-        <v>22</v>
-      </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B176">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="C176" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B177">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B178">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="C178" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B179">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -2378,21 +2378,21 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B180">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C180" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="B181">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -2400,54 +2400,54 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B182">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B183">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="C183" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="B184">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="C184" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="B185">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B186">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -2455,21 +2455,21 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="B187">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="C187" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B188">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="C188" t="s">
         <v>3</v>
@@ -2477,131 +2477,131 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="B189">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C189" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B190">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="C190" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="B191">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C191" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B192">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="C192" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B193">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="B194">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="C194" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="B195">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="C195" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B196">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C196" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="B197">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C197" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B198">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C198" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="B199">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="C199" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B200">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C200" t="s">
         <v>6</v>
@@ -2609,186 +2609,186 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B201">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="C201" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="B202">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="C202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B203">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="B204">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C204" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B205">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="C205" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B206">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C206" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B207">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="C207" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="B208">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="C208" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B209">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C209" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="B210">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="C210" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="B211">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C211" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B212">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="C212" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="B213">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C213" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="B214">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="C214" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="B215">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C215" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="B216">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C216" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="B217">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C217" t="s">
         <v>8</v>
@@ -2796,43 +2796,43 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="B218">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="C218" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="B219">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="C219" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="B220">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="C220" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B221">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -2840,98 +2840,98 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="B222">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="C222" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B223">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C223" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B224">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C224" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="B225">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="C225" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B226">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C226" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="B227">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C227" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B228">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C228" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="B229">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="C229" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="B230">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="C230" t="s">
         <v>6</v>
@@ -2939,219 +2939,219 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B231">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C231" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="B232">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="C232" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B233">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C233" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B234">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C234" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B235">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C235" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="B236">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="C236" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="B237">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C237" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B238">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C238" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B239">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C239" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B240">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="C240" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B241">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C241" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B242">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C242" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="B243">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="C243" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B244">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="C244" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245">
+        <v>3</v>
+      </c>
+      <c r="B245">
         <v>85</v>
       </c>
-      <c r="B245">
-        <v>27</v>
-      </c>
       <c r="C245" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="B246">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="C246" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B247">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="C247" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="B248">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="C248" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B249">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="C249" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B250">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -3159,21 +3159,21 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B251">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="C251" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B252">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C252" t="s">
         <v>3</v>
@@ -3181,101 +3181,101 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B253">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C253" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B254">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="C254" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B255">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="C255" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="B256">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C256" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B257">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="C257" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="B258">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C258" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B259">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="C259" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B260">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C260" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B261">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="C261" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3283,128 +3283,128 @@
         <v>67</v>
       </c>
       <c r="B262">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C262" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B263">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C263" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="B264">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C264" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B265">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="C265" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B266">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="C266" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="B267">
         <v>88</v>
       </c>
       <c r="C267" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="B268">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C268" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B269">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="C269" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B270">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C270" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B271">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="C271" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="B272">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="C272" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B273">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C273" t="s">
         <v>3</v>
@@ -3412,87 +3412,87 @@
     </row>
     <row r="274" spans="1:3">
       <c r="A274">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B274">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="C274" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B275">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C275" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="B276">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="C276" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="B277">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="C277" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B278">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="C278" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279">
+        <v>76</v>
+      </c>
+      <c r="B279">
         <v>43</v>
       </c>
-      <c r="B279">
-        <v>78</v>
-      </c>
       <c r="C279" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="B280">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="C280" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="B281">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C281" t="s">
         <v>4</v>
@@ -3500,43 +3500,43 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B282">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C282" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="B283">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C283" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="B284">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C284" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B285">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C285" t="s">
         <v>3</v>
@@ -3544,161 +3544,161 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B286">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="C286" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="B287">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="C287" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B288">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="C288" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="B289">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C289" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B290">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C290" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="B291">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C291" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="B292">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="C292" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="B293">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="C293" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B294">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C294" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B295">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C295" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="B296">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C296" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="B297">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="C297" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B298">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C298" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="B299">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="C299" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B300">
         <v>64</v>
@@ -3709,120 +3709,120 @@
     </row>
     <row r="301" spans="1:3">
       <c r="A301">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B301">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C301" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B302">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C302" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="B303">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C303" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B304">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C304" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B305">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="C305" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="B306">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="C306" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B307">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C307" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B308">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="C308" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="B309">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C309" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B310">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C310" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B311">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C311" t="s">
         <v>4</v>
@@ -3830,109 +3830,109 @@
     </row>
     <row r="312" spans="1:3">
       <c r="A312">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="B312">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="C312" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="B313">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C313" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B314">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="C314" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B315">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="C315" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="B316">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="C316" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B317">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C317" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B318">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C318" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="B319">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C319" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="B320">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="C320" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="B321">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C321" t="s">
         <v>9</v>
@@ -3940,10 +3940,10 @@
     </row>
     <row r="322" spans="1:3">
       <c r="A322">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B322">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="C322" t="s">
         <v>8</v>
@@ -3951,32 +3951,32 @@
     </row>
     <row r="323" spans="1:3">
       <c r="A323">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="B323">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C323" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B324">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C324" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="B325">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="C325" t="s">
         <v>4</v>
@@ -3984,109 +3984,109 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="B326">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C326" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B327">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C327" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B328">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C328" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B329">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C329" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="B330">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C330" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="B331">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C331" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="B332">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C332" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="B333">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C333" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B334">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C334" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B335">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="C335" t="s">
         <v>7</v>
@@ -4094,65 +4094,65 @@
     </row>
     <row r="336" spans="1:3">
       <c r="A336">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="B336">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C336" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B337">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="C337" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B338">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="C338" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="B339">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C339" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B340">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C340" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B341">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C341" t="s">
         <v>7</v>
@@ -4160,43 +4160,43 @@
     </row>
     <row r="342" spans="1:3">
       <c r="A342">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B342">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C342" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="B343">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C343" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B344">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="C344" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B345">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C345" t="s">
         <v>4</v>
@@ -4204,21 +4204,21 @@
     </row>
     <row r="346" spans="1:3">
       <c r="A346">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B346">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="C346" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B347">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="C347" t="s">
         <v>9</v>
@@ -4226,87 +4226,87 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="B348">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="C348" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="B349">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="C349" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="B350">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C350" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B351">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="C351" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B352">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="C352" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="B353">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="C353" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="B354">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="C354" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B355">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="C355" t="s">
         <v>8</v>
@@ -4314,98 +4314,98 @@
     </row>
     <row r="356" spans="1:3">
       <c r="A356">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="B356">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C356" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B357">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="C357" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="B358">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="C358" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B359">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C359" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="B360">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C360" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B361">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C361" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B362">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="C362" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B363">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="C363" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B364">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="C364" t="s">
         <v>3</v>
@@ -4413,24 +4413,24 @@
     </row>
     <row r="365" spans="1:3">
       <c r="A365">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="B365">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C365" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B366">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="C366" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
